--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,27 +49,24 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>sc</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -79,106 +76,121 @@
     <t>co</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>make</t>
   </si>
   <si>
     <t>local</t>
@@ -187,49 +199,37 @@
     <t>shopping</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>prices</t>
@@ -590,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +601,7 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C5">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D5">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5066666666666667</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -909,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4476744186046512</v>
+        <v>0.44</v>
       </c>
       <c r="C8">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3896103896103896</v>
+        <v>0.4147286821705427</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>302</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.84375</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3444444444444444</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3333333333333333</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,37 +1109,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.325</v>
+        <v>0.2430278884462151</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2341269841269841</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C13">
         <v>59</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7666666666666667</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,37 +1209,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1313672922252011</v>
+        <v>0.01175680214981525</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>324</v>
+        <v>2942</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,37 +1259,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00876010781671159</v>
+        <v>0.01089394424863826</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="E15">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="F15">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2942</v>
+        <v>3087</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7358490566037735</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1309,13 @@
         <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1335,13 +1335,13 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7254901960784313</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1361,13 +1361,13 @@
         <v>37</v>
       </c>
       <c r="K18">
-        <v>0.6808510638297872</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1387,13 +1387,13 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1413,13 +1413,13 @@
         <v>39</v>
       </c>
       <c r="K20">
-        <v>0.6710182767624021</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L20">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="M20">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1439,13 +1439,13 @@
         <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1465,13 +1465,13 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6279069767441861</v>
+        <v>0.6553524804177546</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1491,13 +1491,13 @@
         <v>42</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1517,13 +1517,13 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>0.5647058823529412</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L24">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1543,13 +1543,13 @@
         <v>44</v>
       </c>
       <c r="K25">
-        <v>0.5617977528089888</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1569,13 +1569,13 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>0.5457627118644067</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1595,13 +1595,13 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5146443514644351</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1621,13 +1621,13 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5076923076923077</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1647,13 +1647,13 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>0.4931506849315068</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1673,13 +1673,13 @@
         <v>49</v>
       </c>
       <c r="K30">
-        <v>0.46875</v>
+        <v>0.5271966527196653</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1699,13 +1699,13 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.4142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1725,13 +1725,13 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4102564102564102</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1751,25 +1751,25 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>0.2134292565947242</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L33">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>328</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1777,13 +1777,13 @@
         <v>53</v>
       </c>
       <c r="K34">
-        <v>0.1984732824427481</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>105</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1803,13 +1803,13 @@
         <v>54</v>
       </c>
       <c r="K35">
-        <v>0.1968503937007874</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1829,25 +1829,25 @@
         <v>55</v>
       </c>
       <c r="K36">
-        <v>0.1717791411042945</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1855,25 +1855,25 @@
         <v>56</v>
       </c>
       <c r="K37">
-        <v>0.1634615384615385</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="L37">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>348</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1881,25 +1881,25 @@
         <v>57</v>
       </c>
       <c r="K38">
-        <v>0.1495327102803738</v>
+        <v>0.1822541966426859</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>182</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1907,25 +1907,25 @@
         <v>58</v>
       </c>
       <c r="K39">
-        <v>0.1461988304093567</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1933,25 +1933,25 @@
         <v>59</v>
       </c>
       <c r="K40">
-        <v>0.1401869158878505</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1959,13 +1959,13 @@
         <v>60</v>
       </c>
       <c r="K41">
-        <v>0.1260869565217391</v>
+        <v>0.1274038461538461</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>201</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1985,25 +1985,25 @@
         <v>61</v>
       </c>
       <c r="K42">
-        <v>0.1097424412094065</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L42">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>795</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2011,25 +2011,25 @@
         <v>62</v>
       </c>
       <c r="K43">
-        <v>0.1033333333333333</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="L43">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="N43">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>807</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2037,25 +2037,25 @@
         <v>63</v>
       </c>
       <c r="K44">
-        <v>0.09480122324159021</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>296</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2063,25 +2063,25 @@
         <v>64</v>
       </c>
       <c r="K45">
-        <v>0.08794788273615635</v>
+        <v>0.116331096196868</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>280</v>
+        <v>790</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2089,25 +2089,25 @@
         <v>65</v>
       </c>
       <c r="K46">
-        <v>0.08180535966149506</v>
+        <v>0.09222222222222222</v>
       </c>
       <c r="L46">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="M46">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="N46">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O46">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1953</v>
+        <v>817</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2115,25 +2115,25 @@
         <v>66</v>
       </c>
       <c r="K47">
-        <v>0.07882534775888717</v>
+        <v>0.09120521172638436</v>
       </c>
       <c r="L47">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>596</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2141,25 +2141,25 @@
         <v>67</v>
       </c>
       <c r="K48">
-        <v>0.07613168724279835</v>
+        <v>0.08775981524249422</v>
       </c>
       <c r="L48">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="M48">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>449</v>
+        <v>790</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2167,25 +2167,25 @@
         <v>68</v>
       </c>
       <c r="K49">
-        <v>0.07398843930635839</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L49">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="M49">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>801</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2193,77 +2193,77 @@
         <v>69</v>
       </c>
       <c r="K50">
-        <v>0.04946996466431095</v>
+        <v>0.07847744360902256</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>538</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.0451152223304122</v>
+        <v>0.07613168724279835</v>
       </c>
       <c r="L51">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="N51">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>2942</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="K52">
-        <v>0.03423236514522822</v>
+        <v>0.04231770833333334</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="N52">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="O52">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>931</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2271,25 +2271,25 @@
         <v>71</v>
       </c>
       <c r="K53">
-        <v>0.02580239144115796</v>
+        <v>0.0395010395010395</v>
       </c>
       <c r="L53">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="M53">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="N53">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="O53">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>3096</v>
+        <v>924</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2297,25 +2297,51 @@
         <v>72</v>
       </c>
       <c r="K54">
-        <v>0.02341717259323504</v>
+        <v>0.02862098872506505</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N54">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="O54">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1126</v>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <v>0.02526049889485317</v>
+      </c>
+      <c r="L55">
+        <v>80</v>
+      </c>
+      <c r="M55">
+        <v>114</v>
+      </c>
+      <c r="N55">
+        <v>0.7</v>
+      </c>
+      <c r="O55">
+        <v>0.3</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>
